--- a/Docs/Scrapbook.xlsx
+++ b/Docs/Scrapbook.xlsx
@@ -7,24 +7,229 @@
     <workbookView xWindow="120" yWindow="105" windowWidth="12435" windowHeight="7740" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Addresses" sheetId="2" r:id="rId1"/>
+    <sheet name="Neopixel Spacing" sheetId="3" r:id="rId2"/>
+    <sheet name="What is this" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+  <si>
+    <t>Measured</t>
+  </si>
+  <si>
+    <t>Delta</t>
+  </si>
+  <si>
+    <t>Measured Distance</t>
+  </si>
+  <si>
+    <t>cm</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>800</t>
+  </si>
+  <si>
+    <t>C00</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>1400</t>
+  </si>
+  <si>
+    <t>1800</t>
+  </si>
+  <si>
+    <t>1C00</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>2400</t>
+  </si>
+  <si>
+    <t>2800</t>
+  </si>
+  <si>
+    <t>2C00</t>
+  </si>
+  <si>
+    <t>3000</t>
+  </si>
+  <si>
+    <t>3400</t>
+  </si>
+  <si>
+    <t>3800</t>
+  </si>
+  <si>
+    <t>3C00</t>
+  </si>
+  <si>
+    <t>4000</t>
+  </si>
+  <si>
+    <t>4400</t>
+  </si>
+  <si>
+    <t>4800</t>
+  </si>
+  <si>
+    <t>4C00</t>
+  </si>
+  <si>
+    <t>5000</t>
+  </si>
+  <si>
+    <t>5400</t>
+  </si>
+  <si>
+    <t>5800</t>
+  </si>
+  <si>
+    <t>5C00</t>
+  </si>
+  <si>
+    <t>6000</t>
+  </si>
+  <si>
+    <t>6400</t>
+  </si>
+  <si>
+    <t>6800</t>
+  </si>
+  <si>
+    <t>6C00</t>
+  </si>
+  <si>
+    <t>7000</t>
+  </si>
+  <si>
+    <t>7400</t>
+  </si>
+  <si>
+    <t>7800</t>
+  </si>
+  <si>
+    <t>7C00</t>
+  </si>
+  <si>
+    <t>8000</t>
+  </si>
+  <si>
+    <t>8400</t>
+  </si>
+  <si>
+    <t>8800</t>
+  </si>
+  <si>
+    <t>8C00</t>
+  </si>
+  <si>
+    <t>9000</t>
+  </si>
+  <si>
+    <t>9400</t>
+  </si>
+  <si>
+    <t>9800</t>
+  </si>
+  <si>
+    <t>9C00</t>
+  </si>
+  <si>
+    <t>A000</t>
+  </si>
+  <si>
+    <t>A400</t>
+  </si>
+  <si>
+    <t>A800</t>
+  </si>
+  <si>
+    <t>AC00</t>
+  </si>
+  <si>
+    <t>B000</t>
+  </si>
+  <si>
+    <t>B400</t>
+  </si>
+  <si>
+    <t>B800</t>
+  </si>
+  <si>
+    <t>BC00</t>
+  </si>
+  <si>
+    <t>C000</t>
+  </si>
+  <si>
+    <t>C400</t>
+  </si>
+  <si>
+    <t>C800</t>
+  </si>
+  <si>
+    <t>CC00</t>
+  </si>
+  <si>
+    <t>D000</t>
+  </si>
+  <si>
+    <t>D400</t>
+  </si>
+  <si>
+    <t>D800</t>
+  </si>
+  <si>
+    <t>DC00</t>
+  </si>
+  <si>
+    <t>E000</t>
+  </si>
+  <si>
+    <t>E400</t>
+  </si>
+  <si>
+    <t>E800</t>
+  </si>
+  <si>
+    <t>EC00</t>
+  </si>
+  <si>
+    <t>F000</t>
+  </si>
+  <si>
+    <t>F400</t>
+  </si>
+  <si>
+    <t>F800</t>
+  </si>
+  <si>
+    <t>FC00</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="######"/>
+    <numFmt numFmtId="164" formatCode="######"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -53,8 +258,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -76,8 +289,13 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -85,46 +303,84 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
-    <xf numFmtId="165" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
-    <xf numFmtId="165" fontId="3" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4"/>
+    <xf numFmtId="2" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Calculation" xfId="4" builtinId="22"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -167,7 +423,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$3:$D$60</c:f>
+              <c:f>'What is this'!$D$3:$D$60</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="58"/>
@@ -360,11 +616,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="44290432"/>
-        <c:axId val="44291968"/>
+        <c:axId val="116683520"/>
+        <c:axId val="116685056"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="44290432"/>
+        <c:axId val="116683520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -373,7 +629,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="44291968"/>
+        <c:crossAx val="116685056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -381,7 +637,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="44291968"/>
+        <c:axId val="116685056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -392,7 +648,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="44290432"/>
+        <c:crossAx val="116683520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -736,553 +992,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:D60"/>
+  <dimension ref="F1:J64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="2" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C3">
-        <v>1017</v>
-      </c>
-      <c r="D3">
-        <f>C3-C2</f>
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="4" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C4">
-        <v>53917</v>
-      </c>
-      <c r="D4">
-        <f>C4-C3</f>
-        <v>52900</v>
-      </c>
-    </row>
-    <row r="5" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C5">
-        <v>107497</v>
-      </c>
-      <c r="D5">
-        <f>C5-C4</f>
-        <v>53580</v>
-      </c>
-    </row>
-    <row r="6" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C6">
-        <v>161689</v>
-      </c>
-      <c r="D6">
-        <f>C6-C5</f>
-        <v>54192</v>
-      </c>
-    </row>
-    <row r="7" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C7">
-        <v>215861</v>
-      </c>
-      <c r="D7">
-        <f>C7-C6</f>
-        <v>54172</v>
-      </c>
-    </row>
-    <row r="8" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C8">
-        <v>270053</v>
-      </c>
-      <c r="D8">
-        <f>C8-C7</f>
-        <v>54192</v>
-      </c>
-    </row>
-    <row r="9" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C9">
-        <v>324213</v>
-      </c>
-      <c r="D9">
-        <f>C9-C8</f>
-        <v>54160</v>
-      </c>
-    </row>
-    <row r="10" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C10">
-        <v>378405</v>
-      </c>
-      <c r="D10">
-        <f>C10-C9</f>
-        <v>54192</v>
-      </c>
-    </row>
-    <row r="11" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C11">
-        <v>432605</v>
-      </c>
-      <c r="D11">
-        <f t="shared" ref="D11:D60" si="0">C11-C10</f>
-        <v>54200</v>
-      </c>
-    </row>
-    <row r="12" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C12">
-        <v>486765</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="0"/>
-        <v>54160</v>
-      </c>
-    </row>
-    <row r="13" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C13">
-        <v>540957</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="0"/>
-        <v>54192</v>
-      </c>
-    </row>
-    <row r="14" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C14">
-        <v>595121</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="0"/>
-        <v>54164</v>
-      </c>
-    </row>
-    <row r="15" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C15">
-        <v>649305</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="0"/>
-        <v>54184</v>
-      </c>
-    </row>
-    <row r="16" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C16">
-        <v>703509</v>
-      </c>
-      <c r="D16">
-        <f t="shared" si="0"/>
-        <v>54204</v>
-      </c>
-    </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C17">
-        <v>757701</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="0"/>
-        <v>54192</v>
-      </c>
-    </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C18">
-        <v>811857</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="0"/>
-        <v>54156</v>
-      </c>
-    </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C19">
-        <v>866033</v>
-      </c>
-      <c r="D19">
-        <f t="shared" si="0"/>
-        <v>54176</v>
-      </c>
-    </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C20">
-        <v>920233</v>
-      </c>
-      <c r="D20">
-        <f t="shared" si="0"/>
-        <v>54200</v>
-      </c>
-    </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C21">
-        <v>974421</v>
-      </c>
-      <c r="D21">
-        <f t="shared" si="0"/>
-        <v>54188</v>
-      </c>
-    </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C22">
-        <v>1028585</v>
-      </c>
-      <c r="D22">
-        <f t="shared" si="0"/>
-        <v>54164</v>
-      </c>
-    </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C23">
-        <v>1083377</v>
-      </c>
-      <c r="D23">
-        <f t="shared" si="0"/>
-        <v>54792</v>
-      </c>
-    </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C24">
-        <v>1138189</v>
-      </c>
-      <c r="D24">
-        <f t="shared" si="0"/>
-        <v>54812</v>
-      </c>
-    </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C25">
-        <v>1193013</v>
-      </c>
-      <c r="D25">
-        <f t="shared" si="0"/>
-        <v>54824</v>
-      </c>
-    </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C26">
-        <v>1247833</v>
-      </c>
-      <c r="D26">
-        <f t="shared" si="0"/>
-        <v>54820</v>
-      </c>
-    </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C27">
-        <v>1302601</v>
-      </c>
-      <c r="D27">
-        <f t="shared" si="0"/>
-        <v>54768</v>
-      </c>
-    </row>
-    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C28">
-        <v>1357417</v>
-      </c>
-      <c r="D28">
-        <f t="shared" si="0"/>
-        <v>54816</v>
-      </c>
-    </row>
-    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C29">
-        <v>1412229</v>
-      </c>
-      <c r="D29">
-        <f t="shared" si="0"/>
-        <v>54812</v>
-      </c>
-    </row>
-    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C30">
-        <v>1467045</v>
-      </c>
-      <c r="D30">
-        <f t="shared" si="0"/>
-        <v>54816</v>
-      </c>
-    </row>
-    <row r="31" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C31">
-        <v>1521825</v>
-      </c>
-      <c r="D31">
-        <f t="shared" si="0"/>
-        <v>54780</v>
-      </c>
-    </row>
-    <row r="32" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C32">
-        <v>1576657</v>
-      </c>
-      <c r="D32">
-        <f t="shared" si="0"/>
-        <v>54832</v>
-      </c>
-    </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C33">
-        <v>1631449</v>
-      </c>
-      <c r="D33">
-        <f t="shared" si="0"/>
-        <v>54792</v>
-      </c>
-    </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C34">
-        <v>1686245</v>
-      </c>
-      <c r="D34">
-        <f t="shared" si="0"/>
-        <v>54796</v>
-      </c>
-    </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C35">
-        <v>1741049</v>
-      </c>
-      <c r="D35">
-        <f t="shared" si="0"/>
-        <v>54804</v>
-      </c>
-    </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C36">
-        <v>1795845</v>
-      </c>
-      <c r="D36">
-        <f t="shared" si="0"/>
-        <v>54796</v>
-      </c>
-    </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C37">
-        <v>1850653</v>
-      </c>
-      <c r="D37">
-        <f t="shared" si="0"/>
-        <v>54808</v>
-      </c>
-    </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C38">
-        <v>1905473</v>
-      </c>
-      <c r="D38">
-        <f t="shared" si="0"/>
-        <v>54820</v>
-      </c>
-    </row>
-    <row r="39" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C39">
-        <v>1960269</v>
-      </c>
-      <c r="D39">
-        <f t="shared" si="0"/>
-        <v>54796</v>
-      </c>
-    </row>
-    <row r="40" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C40">
-        <v>2015097</v>
-      </c>
-      <c r="D40">
-        <f t="shared" si="0"/>
-        <v>54828</v>
-      </c>
-    </row>
-    <row r="41" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C41">
-        <v>2069893</v>
-      </c>
-      <c r="D41">
-        <f t="shared" si="0"/>
-        <v>54796</v>
-      </c>
-    </row>
-    <row r="42" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C42">
-        <v>2124701</v>
-      </c>
-      <c r="D42">
-        <f t="shared" si="0"/>
-        <v>54808</v>
-      </c>
-    </row>
-    <row r="43" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C43">
-        <v>2179505</v>
-      </c>
-      <c r="D43">
-        <f t="shared" si="0"/>
-        <v>54804</v>
-      </c>
-    </row>
-    <row r="44" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C44">
-        <v>2234289</v>
-      </c>
-      <c r="D44">
-        <f t="shared" si="0"/>
-        <v>54784</v>
-      </c>
-    </row>
-    <row r="45" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C45">
-        <v>2289121</v>
-      </c>
-      <c r="D45">
-        <f t="shared" si="0"/>
-        <v>54832</v>
-      </c>
-    </row>
-    <row r="46" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C46">
-        <v>2343913</v>
-      </c>
-      <c r="D46">
-        <f t="shared" si="0"/>
-        <v>54792</v>
-      </c>
-    </row>
-    <row r="47" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C47">
-        <v>2398721</v>
-      </c>
-      <c r="D47">
-        <f t="shared" si="0"/>
-        <v>54808</v>
-      </c>
-    </row>
-    <row r="48" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C48">
-        <v>2453521</v>
-      </c>
-      <c r="D48">
-        <f t="shared" si="0"/>
-        <v>54800</v>
-      </c>
-    </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C49">
-        <v>2508333</v>
-      </c>
-      <c r="D49">
-        <f t="shared" si="0"/>
-        <v>54812</v>
-      </c>
-    </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C50">
-        <v>2563141</v>
-      </c>
-      <c r="D50">
-        <f t="shared" si="0"/>
-        <v>54808</v>
-      </c>
-    </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C51">
-        <v>2617953</v>
-      </c>
-      <c r="D51">
-        <f t="shared" si="0"/>
-        <v>54812</v>
-      </c>
-    </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C52">
-        <v>2672745</v>
-      </c>
-      <c r="D52">
-        <f t="shared" si="0"/>
-        <v>54792</v>
-      </c>
-    </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C53">
-        <v>2727549</v>
-      </c>
-      <c r="D53">
-        <f t="shared" si="0"/>
-        <v>54804</v>
-      </c>
-    </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C54">
-        <v>2782369</v>
-      </c>
-      <c r="D54">
-        <f t="shared" si="0"/>
-        <v>54820</v>
-      </c>
-    </row>
-    <row r="55" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C55">
-        <v>2837181</v>
-      </c>
-      <c r="D55">
-        <f t="shared" si="0"/>
-        <v>54812</v>
-      </c>
-    </row>
-    <row r="56" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C56">
-        <v>2891969</v>
-      </c>
-      <c r="D56">
-        <f t="shared" si="0"/>
-        <v>54788</v>
-      </c>
-    </row>
-    <row r="57" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C57">
-        <v>2946761</v>
-      </c>
-      <c r="D57">
-        <f t="shared" si="0"/>
-        <v>54792</v>
-      </c>
-    </row>
-    <row r="58" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C58">
-        <v>3001593</v>
-      </c>
-      <c r="D58">
-        <f t="shared" si="0"/>
-        <v>54832</v>
-      </c>
-    </row>
-    <row r="59" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C59">
-        <v>3056373</v>
-      </c>
-      <c r="D59">
-        <f t="shared" si="0"/>
-        <v>54780</v>
-      </c>
-    </row>
-    <row r="60" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C60">
-        <v>3111181</v>
-      </c>
-      <c r="D60">
-        <f t="shared" si="0"/>
-        <v>54808</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="F1:J64"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2641,14 +2354,1339 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:M65"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D74" sqref="D74"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.5703125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C1" s="14"/>
+      <c r="D1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+    </row>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="14">
+        <v>0</v>
+      </c>
+      <c r="D2" s="13">
+        <v>0</v>
+      </c>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" s="7"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="14">
+        <v>1</v>
+      </c>
+      <c r="D3" s="13">
+        <v>1.65</v>
+      </c>
+      <c r="E3" s="17">
+        <f>D3-D2</f>
+        <v>1.65</v>
+      </c>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="7">
+        <v>1.65</v>
+      </c>
+      <c r="M3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="14">
+        <v>2</v>
+      </c>
+      <c r="D4" s="13">
+        <v>3.25</v>
+      </c>
+      <c r="E4" s="17">
+        <f t="shared" ref="E4:E11" si="0">D4-D3</f>
+        <v>1.6</v>
+      </c>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="14">
+        <v>3</v>
+      </c>
+      <c r="D5" s="13">
+        <v>4.95</v>
+      </c>
+      <c r="E5" s="17">
+        <f t="shared" si="0"/>
+        <v>1.7000000000000002</v>
+      </c>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="14">
+        <v>4</v>
+      </c>
+      <c r="D6" s="13">
+        <v>6.6</v>
+      </c>
+      <c r="E6" s="17">
+        <f t="shared" si="0"/>
+        <v>1.6499999999999995</v>
+      </c>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="14">
+        <v>5</v>
+      </c>
+      <c r="D7" s="13">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="E7" s="17">
+        <f t="shared" si="0"/>
+        <v>1.5999999999999996</v>
+      </c>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="14">
+        <v>6</v>
+      </c>
+      <c r="D8" s="13">
+        <v>9.9</v>
+      </c>
+      <c r="E8" s="17">
+        <f t="shared" si="0"/>
+        <v>1.7000000000000011</v>
+      </c>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="14">
+        <v>7</v>
+      </c>
+      <c r="D9" s="13">
+        <v>11.6</v>
+      </c>
+      <c r="E9" s="17">
+        <f t="shared" si="0"/>
+        <v>1.6999999999999993</v>
+      </c>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="14">
+        <v>8</v>
+      </c>
+      <c r="D10" s="13">
+        <v>13.2</v>
+      </c>
+      <c r="E10" s="17">
+        <f t="shared" si="0"/>
+        <v>1.5999999999999996</v>
+      </c>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="14">
+        <v>9</v>
+      </c>
+      <c r="D11" s="13">
+        <v>14.9</v>
+      </c>
+      <c r="E11" s="17">
+        <f t="shared" si="0"/>
+        <v>1.7000000000000011</v>
+      </c>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="14">
+        <v>10</v>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="14">
+        <v>11</v>
+      </c>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="14">
+        <v>12</v>
+      </c>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="14">
+        <v>13</v>
+      </c>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="14">
+        <v>14</v>
+      </c>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="14">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="14">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="14">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="14">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="14">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="14">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="14">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="14">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="14">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="14">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B29" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="14">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B30" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" s="14">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B31" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" s="14">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B32" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="14">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" s="14">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" s="14">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B35" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" s="14">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B36" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" s="14">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B37" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37" s="14">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B38" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" s="14">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B39" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39" s="14">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B40" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C40" s="14">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B41" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C41" s="14">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B42" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42" s="14">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B43" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C43" s="14">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B44" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44" s="14">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B45" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" s="14">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B46" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C46" s="14">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B47" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C47" s="14">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B48" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C48" s="14">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B49" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C49" s="14">
+        <v>47</v>
+      </c>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B50" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C50" s="14">
+        <v>48</v>
+      </c>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B51" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C51" s="14">
+        <v>49</v>
+      </c>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B52" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C52" s="14">
+        <v>50</v>
+      </c>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B53" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C53" s="14">
+        <v>51</v>
+      </c>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B54" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C54" s="14">
+        <v>52</v>
+      </c>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B55" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C55" s="14">
+        <v>53</v>
+      </c>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B56" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C56" s="14">
+        <v>54</v>
+      </c>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B57" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C57" s="14">
+        <v>55</v>
+      </c>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B58" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C58" s="14">
+        <v>56</v>
+      </c>
+      <c r="D58" s="14"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14"/>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B59" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C59" s="14">
+        <v>57</v>
+      </c>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14"/>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B60" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C60" s="14">
+        <v>58</v>
+      </c>
+      <c r="D60" s="14"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="14"/>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B61" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C61" s="14">
+        <v>59</v>
+      </c>
+      <c r="D61" s="14"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14"/>
+    </row>
+    <row r="62" spans="2:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C62" s="18">
+        <v>60</v>
+      </c>
+      <c r="D62" s="19">
+        <v>97.8</v>
+      </c>
+      <c r="F62" s="20">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B63" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C63" s="21">
+        <v>61</v>
+      </c>
+      <c r="D63" s="15">
+        <f>D62+$L$3</f>
+        <v>99.45</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B64" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C64" s="21">
+        <v>62</v>
+      </c>
+      <c r="D64" s="15">
+        <f t="shared" ref="D64:D65" si="1">D63+$L$3</f>
+        <v>101.10000000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B65" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C65" s="21">
+        <v>63</v>
+      </c>
+      <c r="D65" s="15">
+        <f t="shared" si="1"/>
+        <v>102.75000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="C2:D60"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>1017</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D10" si="0">C3-C2</f>
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="4" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>53917</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>52900</v>
+      </c>
+    </row>
+    <row r="5" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>107497</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>53580</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>161689</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>54192</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>215861</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>54172</v>
+      </c>
+    </row>
+    <row r="8" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>270053</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>54192</v>
+      </c>
+    </row>
+    <row r="9" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>324213</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>54160</v>
+      </c>
+    </row>
+    <row r="10" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>378405</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>54192</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>432605</v>
+      </c>
+      <c r="D11">
+        <f t="shared" ref="D11:D60" si="1">C11-C10</f>
+        <v>54200</v>
+      </c>
+    </row>
+    <row r="12" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>486765</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>54160</v>
+      </c>
+    </row>
+    <row r="13" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>540957</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>54192</v>
+      </c>
+    </row>
+    <row r="14" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>595121</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>54164</v>
+      </c>
+    </row>
+    <row r="15" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>649305</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>54184</v>
+      </c>
+    </row>
+    <row r="16" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>703509</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>54204</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>757701</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>54192</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>811857</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="1"/>
+        <v>54156</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>866033</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="1"/>
+        <v>54176</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>920233</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="1"/>
+        <v>54200</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>974421</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="1"/>
+        <v>54188</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>1028585</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="1"/>
+        <v>54164</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <v>1083377</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="1"/>
+        <v>54792</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <v>1138189</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="1"/>
+        <v>54812</v>
+      </c>
+    </row>
+    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <v>1193013</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="1"/>
+        <v>54824</v>
+      </c>
+    </row>
+    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <v>1247833</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="1"/>
+        <v>54820</v>
+      </c>
+    </row>
+    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <v>1302601</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="1"/>
+        <v>54768</v>
+      </c>
+    </row>
+    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <v>1357417</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="1"/>
+        <v>54816</v>
+      </c>
+    </row>
+    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <v>1412229</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="1"/>
+        <v>54812</v>
+      </c>
+    </row>
+    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <v>1467045</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="1"/>
+        <v>54816</v>
+      </c>
+    </row>
+    <row r="31" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <v>1521825</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="1"/>
+        <v>54780</v>
+      </c>
+    </row>
+    <row r="32" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <v>1576657</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="1"/>
+        <v>54832</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <v>1631449</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="1"/>
+        <v>54792</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <v>1686245</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="1"/>
+        <v>54796</v>
+      </c>
+    </row>
+    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <v>1741049</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="1"/>
+        <v>54804</v>
+      </c>
+    </row>
+    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <v>1795845</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="1"/>
+        <v>54796</v>
+      </c>
+    </row>
+    <row r="37" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <v>1850653</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="1"/>
+        <v>54808</v>
+      </c>
+    </row>
+    <row r="38" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <v>1905473</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="1"/>
+        <v>54820</v>
+      </c>
+    </row>
+    <row r="39" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C39">
+        <v>1960269</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="1"/>
+        <v>54796</v>
+      </c>
+    </row>
+    <row r="40" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C40">
+        <v>2015097</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="1"/>
+        <v>54828</v>
+      </c>
+    </row>
+    <row r="41" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C41">
+        <v>2069893</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="1"/>
+        <v>54796</v>
+      </c>
+    </row>
+    <row r="42" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C42">
+        <v>2124701</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="1"/>
+        <v>54808</v>
+      </c>
+    </row>
+    <row r="43" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C43">
+        <v>2179505</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="1"/>
+        <v>54804</v>
+      </c>
+    </row>
+    <row r="44" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C44">
+        <v>2234289</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="1"/>
+        <v>54784</v>
+      </c>
+    </row>
+    <row r="45" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C45">
+        <v>2289121</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="1"/>
+        <v>54832</v>
+      </c>
+    </row>
+    <row r="46" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C46">
+        <v>2343913</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="1"/>
+        <v>54792</v>
+      </c>
+    </row>
+    <row r="47" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C47">
+        <v>2398721</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="1"/>
+        <v>54808</v>
+      </c>
+    </row>
+    <row r="48" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C48">
+        <v>2453521</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="1"/>
+        <v>54800</v>
+      </c>
+    </row>
+    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C49">
+        <v>2508333</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="1"/>
+        <v>54812</v>
+      </c>
+    </row>
+    <row r="50" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C50">
+        <v>2563141</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="1"/>
+        <v>54808</v>
+      </c>
+    </row>
+    <row r="51" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C51">
+        <v>2617953</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="1"/>
+        <v>54812</v>
+      </c>
+    </row>
+    <row r="52" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C52">
+        <v>2672745</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="1"/>
+        <v>54792</v>
+      </c>
+    </row>
+    <row r="53" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C53">
+        <v>2727549</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="1"/>
+        <v>54804</v>
+      </c>
+    </row>
+    <row r="54" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C54">
+        <v>2782369</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="1"/>
+        <v>54820</v>
+      </c>
+    </row>
+    <row r="55" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C55">
+        <v>2837181</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="1"/>
+        <v>54812</v>
+      </c>
+    </row>
+    <row r="56" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C56">
+        <v>2891969</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="1"/>
+        <v>54788</v>
+      </c>
+    </row>
+    <row r="57" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C57">
+        <v>2946761</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="1"/>
+        <v>54792</v>
+      </c>
+    </row>
+    <row r="58" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C58">
+        <v>3001593</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="1"/>
+        <v>54832</v>
+      </c>
+    </row>
+    <row r="59" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C59">
+        <v>3056373</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="1"/>
+        <v>54780</v>
+      </c>
+    </row>
+    <row r="60" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C60">
+        <v>3111181</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="1"/>
+        <v>54808</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Docs/Scrapbook.xlsx
+++ b/Docs/Scrapbook.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Addresses" sheetId="2" r:id="rId1"/>
     <sheet name="Neopixel Spacing" sheetId="3" r:id="rId2"/>
-    <sheet name="What is this" sheetId="1" r:id="rId3"/>
+    <sheet name="Latency Calcs" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -423,7 +423,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'What is this'!$D$3:$D$60</c:f>
+              <c:f>'Latency Calcs'!$D$3:$D$60</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="58"/>
@@ -616,11 +616,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="116683520"/>
-        <c:axId val="116685056"/>
+        <c:axId val="143648640"/>
+        <c:axId val="143650176"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="116683520"/>
+        <c:axId val="143648640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -629,7 +629,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116685056"/>
+        <c:crossAx val="143650176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -637,7 +637,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="116685056"/>
+        <c:axId val="143650176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -648,7 +648,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116683520"/>
+        <c:crossAx val="143648640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
